--- a/doc/Planification détailé.xlsx
+++ b/doc/Planification détailé.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A3A89F-A430-4A2E-A8F8-4A0A270E319C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2205" yWindow="90" windowWidth="24525" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,107 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="25">
+  <si>
+    <t>Semaine</t>
+  </si>
+  <si>
+    <t>Tâche</t>
+  </si>
+  <si>
+    <t>Durée
+[1/4 h.]</t>
+  </si>
+  <si>
+    <r>
+      <t>Explications:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qu'est-ce qui se fait et comment ?</t>
+    </r>
+  </si>
+  <si>
+    <t>Liens, références, …</t>
+  </si>
+  <si>
+    <t>Absence - Imprévus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectifs du module : codification (pour assurer l'intégrité), compression (pour minimiser la taille, donc améliorer les performances), chiffrement  (pour garantir la sécurité) -&gt; </t>
+  </si>
+  <si>
+    <t>..\a-IdentificationModule\Module_114_CF_FR.pdf</t>
+  </si>
+  <si>
+    <t>OO1-compression-codification</t>
+  </si>
+  <si>
+    <t>Préparer une présentation de 5 minutes par groupe de 3-4 sur les thèmes suivants: [Qu'est-ce que c'est, à quoi ça sert, comment on l'utilise]
+1) Encodage textes (ASCII, ANSI, BCD,UTF)
+2) Opérateurs booléens OR/AND/NOT/XOR/...
+3) Formats d'image (nb/couleur, vectoriel/bitmap, résolution/profondeur des couleurs, RGB/CMYK)
+4) Compression audio (mp3, aiff, drm, ...)
+5) Formats vidéo (h.263, divx, mpeg-3, ...)</t>
+  </si>
+  <si>
+    <t>E-114-TravailGroupe.docx</t>
+  </si>
+  <si>
+    <t>Exposés et feedback</t>
+  </si>
+  <si>
+    <t>Passer la vidéo 1-2 fois en demandant aux apprentis de noter les exemples déontologiques/non déontologiques</t>
+  </si>
+  <si>
+    <t>A-114-HACKER Bande Annonce VF (2015).mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainstorming : Prof au tableau dessine le mindmap selon les idées proposées par les apprentis au sujet des connaissances requises pour devenir un hacker. Ensuite leur faire chercher si il existe des formations pour devenir hacker. Au final, montrer le fichier de la certification d'ethical hacker et </t>
+  </si>
+  <si>
+    <t>A-114-Course CEH - Formation_ Certified Ethical Hacker (CEH) - Digicomp.pdf</t>
+  </si>
+  <si>
+    <t>Passer en revue les techniques et technologies à connaitres.</t>
+  </si>
+  <si>
+    <t>https://www.eccouncil.org/programs/certified-ethical-hacker-ceh/</t>
+  </si>
+  <si>
+    <t>Accroches\A-114-Formation Certified Ethical Hacker v9.pdf</t>
+  </si>
+  <si>
+    <t>CO1_4-codification-binaire</t>
+  </si>
+  <si>
+    <t>Exercice de révision du code binaire:finir en devoir pour la prochaine fois</t>
+  </si>
+  <si>
+    <t>E-114-Exercices-codification-binaire.docx</t>
+  </si>
+  <si>
+    <t>Total semaine</t>
+  </si>
+  <si>
+    <t>Max. 15</t>
+  </si>
+  <si>
+    <t>Analyse du cahier des charges</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +132,91 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -45,18 +224,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{07C691A2-B3C9-4ACE-B417-34D985FE291F}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{88F45427-AF1E-481F-AF9C-0632B92C123D}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{5094FEF6-1856-4A0E-87D0-5A5CC3EC1797}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{14B61AAE-3C8A-42EB-95CF-5A0850E32C62}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0" xr9:uid="{639EB4AF-38B4-48F2-830A-73407A37DD45}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +757,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>15</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="23">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="20">
+        <v>3</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="33">
+        <v>3</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="33">
+        <v>3</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="19">
+        <v>2</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="19">
+        <v>2</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27">
+        <v>15</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="28"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{FD118D84-D69B-4F07-8A58-04E81BF4F32E}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{A3F89192-9526-4BEA-98BE-65A4356EA62D}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{BCAA0E53-39AE-42E1-A6B1-6A699EAF07E8}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{254D55E5-7880-4FB1-A264-93758306E5DD}"/>
+    <hyperlink ref="D20" r:id="rId12" xr:uid="{349BE18A-F173-4168-99BC-82495F127C00}"/>
+    <hyperlink ref="D22" r:id="rId13" xr:uid="{744FAA9D-8548-4ED5-8D61-AD689896EBF1}"/>
+    <hyperlink ref="D21" r:id="rId14" xr:uid="{07938FA9-EC7C-4D28-9664-FFAFBB7F4C45}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Planification détailé.xlsx
+++ b/doc/Planification détailé.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A3A89F-A430-4A2E-A8F8-4A0A270E319C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2419A37-65B3-4532-9CC1-A723C46F650A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="90" windowWidth="24525" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Semaine</t>
   </si>
   <si>
     <t>Tâche</t>
-  </si>
-  <si>
-    <t>Durée
-[1/4 h.]</t>
   </si>
   <si>
     <r>
@@ -55,76 +51,69 @@
     <t>Liens, références, …</t>
   </si>
   <si>
-    <t>Absence - Imprévus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectifs du module : codification (pour assurer l'intégrité), compression (pour minimiser la taille, donc améliorer les performances), chiffrement  (pour garantir la sécurité) -&gt; </t>
-  </si>
-  <si>
-    <t>..\a-IdentificationModule\Module_114_CF_FR.pdf</t>
-  </si>
-  <si>
-    <t>OO1-compression-codification</t>
-  </si>
-  <si>
-    <t>Préparer une présentation de 5 minutes par groupe de 3-4 sur les thèmes suivants: [Qu'est-ce que c'est, à quoi ça sert, comment on l'utilise]
-1) Encodage textes (ASCII, ANSI, BCD,UTF)
-2) Opérateurs booléens OR/AND/NOT/XOR/...
-3) Formats d'image (nb/couleur, vectoriel/bitmap, résolution/profondeur des couleurs, RGB/CMYK)
-4) Compression audio (mp3, aiff, drm, ...)
-5) Formats vidéo (h.263, divx, mpeg-3, ...)</t>
-  </si>
-  <si>
-    <t>E-114-TravailGroupe.docx</t>
-  </si>
-  <si>
-    <t>Exposés et feedback</t>
-  </si>
-  <si>
-    <t>Passer la vidéo 1-2 fois en demandant aux apprentis de noter les exemples déontologiques/non déontologiques</t>
-  </si>
-  <si>
-    <t>A-114-HACKER Bande Annonce VF (2015).mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brainstorming : Prof au tableau dessine le mindmap selon les idées proposées par les apprentis au sujet des connaissances requises pour devenir un hacker. Ensuite leur faire chercher si il existe des formations pour devenir hacker. Au final, montrer le fichier de la certification d'ethical hacker et </t>
-  </si>
-  <si>
-    <t>A-114-Course CEH - Formation_ Certified Ethical Hacker (CEH) - Digicomp.pdf</t>
-  </si>
-  <si>
-    <t>Passer en revue les techniques et technologies à connaitres.</t>
-  </si>
-  <si>
-    <t>https://www.eccouncil.org/programs/certified-ethical-hacker-ceh/</t>
-  </si>
-  <si>
-    <t>Accroches\A-114-Formation Certified Ethical Hacker v9.pdf</t>
-  </si>
-  <si>
-    <t>CO1_4-codification-binaire</t>
-  </si>
-  <si>
-    <t>Exercice de révision du code binaire:finir en devoir pour la prochaine fois</t>
-  </si>
-  <si>
-    <t>E-114-Exercices-codification-binaire.docx</t>
-  </si>
-  <si>
-    <t>Total semaine</t>
-  </si>
-  <si>
-    <t>Max. 15</t>
-  </si>
-  <si>
     <t>Analyse du cahier des charges</t>
+  </si>
+  <si>
+    <t>Durée
+[en h]</t>
+  </si>
+  <si>
+    <t>Rendez-vous avec l'expert et mon responsable de stage dans le but de commencer mon projet. C'est a ce moment que j'ai pu prendre conscience du travail demander.</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/blob/master/doc/Cahier%20des%20Charges.docx</t>
+  </si>
+  <si>
+    <t>Création de la maquette graphique</t>
+  </si>
+  <si>
+    <t>Redaction Planification Initial</t>
+  </si>
+  <si>
+    <t>Conception de projet</t>
+  </si>
+  <si>
+    <t>ReadMe (Front,Back et app)</t>
+  </si>
+  <si>
+    <t>Feature - Equipe (front)</t>
+  </si>
+  <si>
+    <t>Feature - Partie (front)</t>
+  </si>
+  <si>
+    <t>Feature - Historique des partie (front)</t>
+  </si>
+  <si>
+    <t>Feature - Joueur (front)</t>
+  </si>
+  <si>
+    <t>Feature - Quel joueur commence la partie ? (Backend)</t>
+  </si>
+  <si>
+    <t>Feature - Comptage des points (Backend)</t>
+  </si>
+  <si>
+    <t>Feature - Nombre de point pas equipe (Backend)</t>
+  </si>
+  <si>
+    <t>Création de différentes vue pour l'appilication mobile. Je me suis aidé du siteweb Figma, cela m'as permit de mettre en place assez facilement quelque maquette pour mes vue.</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/blob/master/doc/Maquette%20app.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redaction du journal initial pour les besoin de ce projet </t>
+  </si>
+  <si>
+    <t>Rédaction des différentes documentation concernant ma documentation, le backend et ainsi que le frontend. Disponisble sur mon reposite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +178,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,14 +210,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -240,21 +235,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -313,8 +293,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="dashed">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -331,143 +313,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -758,317 +650,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1"/>
     <col min="4" max="4" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="B4" s="12">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="9" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="15">
-        <v>15</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="23">
-        <v>2</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="20">
-        <v>3</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="33">
-        <v>3</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="33">
-        <v>3</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="34"/>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="19">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="19">
-        <v>2</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="19">
-        <v>2</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27">
-        <v>15</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="28"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{FD118D84-D69B-4F07-8A58-04E81BF4F32E}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{A3F89192-9526-4BEA-98BE-65A4356EA62D}"/>
-    <hyperlink ref="D18" r:id="rId10" xr:uid="{BCAA0E53-39AE-42E1-A6B1-6A699EAF07E8}"/>
-    <hyperlink ref="D19" r:id="rId11" xr:uid="{254D55E5-7880-4FB1-A264-93758306E5DD}"/>
-    <hyperlink ref="D20" r:id="rId12" xr:uid="{349BE18A-F173-4168-99BC-82495F127C00}"/>
-    <hyperlink ref="D22" r:id="rId13" xr:uid="{744FAA9D-8548-4ED5-8D61-AD689896EBF1}"/>
-    <hyperlink ref="D21" r:id="rId14" xr:uid="{07938FA9-EC7C-4D28-9664-FFAFBB7F4C45}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{98337B0C-703F-451C-8DD6-87F1094E4808}"/>
+    <hyperlink ref="D18" r:id="rId2" xr:uid="{6D6D587F-2374-488F-A6CF-4CEB2FBF9CA4}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{5C76B441-8CBF-4C07-B318-19A3E9D93700}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>